--- a/students.xlsx
+++ b/students.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
@@ -470,6 +470,11 @@
           <t>Marks</t>
         </is>
       </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Double Mark</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="15" customHeight="1" s="2">
       <c r="A2" s="3" t="inlineStr">
@@ -480,6 +485,9 @@
       <c r="B2" s="3" t="n">
         <v>480</v>
       </c>
+      <c r="C2" s="3" t="n">
+        <v>480</v>
+      </c>
     </row>
     <row r="3" ht="15" customHeight="1" s="2">
       <c r="A3" s="3" t="inlineStr">
@@ -490,6 +498,9 @@
       <c r="B3" s="3" t="n">
         <v>450</v>
       </c>
+      <c r="C3" s="3" t="n">
+        <v>450</v>
+      </c>
     </row>
     <row r="4" ht="15" customHeight="1" s="2">
       <c r="A4" s="3" t="inlineStr">
@@ -500,6 +511,9 @@
       <c r="B4" s="3" t="n">
         <v>490</v>
       </c>
+      <c r="C4" s="3" t="n">
+        <v>490</v>
+      </c>
     </row>
     <row r="5" ht="15" customHeight="1" s="2">
       <c r="A5" s="3" t="inlineStr">
@@ -510,6 +524,9 @@
       <c r="B5" s="3" t="n">
         <v>471</v>
       </c>
+      <c r="C5" s="3" t="n">
+        <v>471</v>
+      </c>
     </row>
     <row r="6" ht="15" customHeight="1" s="2">
       <c r="A6" s="3" t="inlineStr">
@@ -518,7 +535,10 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>479</v>
+        <v>478</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>478</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" s="2">
@@ -530,6 +550,9 @@
       <c r="B7" s="3" t="n">
         <v>481</v>
       </c>
+      <c r="C7" s="3" t="n">
+        <v>481</v>
+      </c>
     </row>
     <row r="8" ht="15" customHeight="1" s="2">
       <c r="A8" s="3" t="inlineStr">
@@ -540,14 +563,20 @@
       <c r="B8" s="3" t="n">
         <v>460</v>
       </c>
+      <c r="C8" s="3" t="n">
+        <v>460</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>meera</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="3" t="n">
+        <v>453</v>
+      </c>
+      <c r="C9" s="3" t="n">
         <v>453</v>
       </c>
     </row>

--- a/students.xlsx
+++ b/students.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,7 +19,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <name val="Calibri"/>
@@ -71,7 +73,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -80,6 +82,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -567,7 +575,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="15" customHeight="1" s="2">
       <c r="A9" s="3" t="inlineStr">
         <is>
           <t>meera</t>
@@ -595,11 +603,11 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
@@ -696,14 +704,47 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.15234375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetData>
+    <row r="1" ht="12.75" customHeight="1" s="2">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>S.No</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.75" customHeight="1" s="2">
+      <c r="A2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>20/12/24</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>senthil</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -730,7 +771,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData/>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/students.xlsx
+++ b/students.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,7 +20,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -73,15 +73,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -459,133 +471,180 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="2">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Students </t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Marks</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Double Mark</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="2">
-      <c r="A2" s="3" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="5">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>Interest</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="5">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>senthil</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="6" t="n">
         <v>480</v>
       </c>
-      <c r="C2" s="3" t="n">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="3" ht="15" customHeight="1" s="2">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="C2" s="7" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" s="5">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>priya</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="6" t="n">
         <v>450</v>
       </c>
-      <c r="C3" s="3" t="n">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="2">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="C3" s="7" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.75</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="5">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>anu</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="6" t="n">
         <v>490</v>
       </c>
-      <c r="C4" s="3" t="n">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="2">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="C4" s="7" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.29</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" s="5">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>hari</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="6" t="n">
         <v>471</v>
       </c>
-      <c r="C5" s="3" t="n">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="2">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="C5" s="7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="5">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>ammu</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="6" t="n">
         <v>478</v>
       </c>
-      <c r="C6" s="3" t="n">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1" s="2">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="C6" s="7" t="n">
+        <v>0.0478</v>
+      </c>
+      <c r="D6" t="n">
+        <v>22.8484</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" s="5">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>kiran</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="6" t="n">
         <v>481</v>
       </c>
-      <c r="C7" s="3" t="n">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1" s="2">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="C7" s="7" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="D7" t="n">
+        <v>19.721</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="5">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>suraj</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="6" t="n">
         <v>460</v>
       </c>
-      <c r="C8" s="3" t="n">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1" s="2">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="C8" s="7" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="D8" t="n">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1" s="5">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>meera</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="6" t="n">
         <v>453</v>
       </c>
-      <c r="C9" s="3" t="n">
-        <v>453</v>
+      <c r="C9" s="7" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="D9" t="n">
+        <v>19.479</v>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1" s="5"/>
+    <row r="11" ht="15" customHeight="1" s="5">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B11" s="6">
+        <f>SUM(B2:B9)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1" s="5">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B12" s="6">
+        <f>AVERAGE(B2:B9)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -609,85 +668,85 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="2">
-      <c r="A1" s="3" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="5">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>students</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>Grade</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="2">
-      <c r="A2" s="3" t="inlineStr">
+    <row r="2" ht="15" customHeight="1" s="5">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>senthil</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="6" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="2">
-      <c r="A3" s="3" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="5">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>priya</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="6" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="2">
-      <c r="A4" s="3" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="5">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>anu</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="2">
-      <c r="A5" s="3" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="5">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>hari</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="6" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="2">
-      <c r="A6" s="3" t="inlineStr">
+    <row r="6" ht="15" customHeight="1" s="5">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>ammu</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="6" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="2">
-      <c r="A7" s="3" t="inlineStr">
+    <row r="7" ht="15" customHeight="1" s="5">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>kiran</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="6" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="2">
-      <c r="A8" s="3" t="inlineStr">
+    <row r="8" ht="15" customHeight="1" s="5">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>suraj</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="6" t="n">
         <v>6</v>
       </c>
     </row>
@@ -706,39 +765,39 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.171875" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1" s="2">
-      <c r="A1" s="4" t="inlineStr">
+    <row r="1" ht="12.75" customHeight="1" s="5">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>S.No</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="8" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1" s="2">
-      <c r="A2" s="3" t="n">
+    <row r="2" ht="12.75" customHeight="1" s="5">
+      <c r="A2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="B2" s="9" t="inlineStr">
         <is>
           <t>20/12/24</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="8" t="inlineStr">
         <is>
           <t>senthil</t>
         </is>

--- a/students.xlsx
+++ b/students.xlsx
@@ -22,7 +22,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
@@ -45,6 +45,21 @@
       <family val="0"/>
       <sz val="10"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <sz val="5"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <sz val="25"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <sz val="15"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -73,7 +88,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -89,17 +104,26 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -471,178 +495,217 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0"/>
+  <cols>
+    <col width="9.26" customWidth="1" style="5" min="3" max="3"/>
+    <col width="14.77" customWidth="1" style="5" min="4" max="4"/>
+    <col width="16.2" customWidth="1" style="5" min="5" max="5"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="5">
-      <c r="A1" s="6" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="6">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
-        <is>
-          <t>Interest</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="5">
-      <c r="A2" s="6" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>Interest %</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>intrest per year</t>
+        </is>
+      </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
+          <t>Amount + interest</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="6">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>senthil</t>
         </is>
       </c>
-      <c r="B2" s="6" t="n">
+      <c r="B2" s="5" t="n">
         <v>480</v>
       </c>
       <c r="C2" s="7" t="n">
         <v>0.04</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="5" t="n">
         <v>19.2</v>
       </c>
-    </row>
-    <row r="3" ht="15" customHeight="1" s="5">
-      <c r="A3" s="6" t="inlineStr">
+      <c r="E2" s="5" t="n">
+        <v>499.2</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" s="6">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>priya</t>
         </is>
       </c>
-      <c r="B3" s="6" t="n">
+      <c r="B3" s="5" t="n">
         <v>450</v>
       </c>
       <c r="C3" s="7" t="n">
         <v>0.035</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="5" t="n">
         <v>15.75</v>
       </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="5">
-      <c r="A4" s="6" t="inlineStr">
+      <c r="E3" s="5" t="n">
+        <v>465.75</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="6">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>anu</t>
         </is>
       </c>
-      <c r="B4" s="6" t="n">
+      <c r="B4" s="5" t="n">
         <v>490</v>
       </c>
       <c r="C4" s="7" t="n">
         <v>0.021</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="5" t="n">
         <v>10.29</v>
       </c>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="5">
-      <c r="A5" s="6" t="inlineStr">
+      <c r="E4" s="5" t="n">
+        <v>500.29</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" s="6">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>hari</t>
         </is>
       </c>
-      <c r="B5" s="6" t="n">
+      <c r="B5" s="5" t="n">
         <v>471</v>
       </c>
       <c r="C5" s="7" t="n">
         <v>0.01</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="5" t="n">
         <v>4.71</v>
       </c>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="5">
-      <c r="A6" s="6" t="inlineStr">
+      <c r="E5" s="5" t="n">
+        <v>475.71</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="6">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>ammu</t>
         </is>
       </c>
-      <c r="B6" s="6" t="n">
+      <c r="B6" s="5" t="n">
         <v>478</v>
       </c>
       <c r="C6" s="7" t="n">
         <v>0.0478</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="5" t="n">
         <v>22.8484</v>
       </c>
-    </row>
-    <row r="7" ht="15" customHeight="1" s="5">
-      <c r="A7" s="6" t="inlineStr">
+      <c r="E6" s="5" t="n">
+        <v>500.8484</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" s="6">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>kiran</t>
         </is>
       </c>
-      <c r="B7" s="6" t="n">
+      <c r="B7" s="5" t="n">
         <v>481</v>
       </c>
       <c r="C7" s="7" t="n">
         <v>0.041</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="5" t="n">
         <v>19.721</v>
       </c>
-    </row>
-    <row r="8" ht="15" customHeight="1" s="5">
-      <c r="A8" s="6" t="inlineStr">
+      <c r="E7" s="5" t="n">
+        <v>500.721</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="6">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>suraj</t>
         </is>
       </c>
-      <c r="B8" s="6" t="n">
+      <c r="B8" s="5" t="n">
         <v>460</v>
       </c>
       <c r="C8" s="7" t="n">
         <v>0.06</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="5" t="n">
         <v>27.6</v>
       </c>
-    </row>
-    <row r="9" ht="15" customHeight="1" s="5">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="E8" s="5" t="n">
+        <v>487.6</v>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1" s="6">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>meera</t>
         </is>
       </c>
-      <c r="B9" s="6" t="n">
+      <c r="B9" s="5" t="n">
         <v>453</v>
       </c>
       <c r="C9" s="7" t="n">
         <v>0.043</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="5" t="n">
         <v>19.479</v>
       </c>
-    </row>
-    <row r="10" ht="15" customHeight="1" s="5"/>
-    <row r="11" ht="15" customHeight="1" s="5">
-      <c r="A11" s="6" t="inlineStr">
+      <c r="E9" s="5" t="n">
+        <v>472.479</v>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1" s="6"/>
+    <row r="11" ht="15" customHeight="1" s="6">
+      <c r="A11" s="12" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <f>SUM(B2:B9)</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="5">
-      <c r="A12" s="6" t="inlineStr">
+    <row r="12" ht="15" customHeight="1" s="6">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <f>AVERAGE(B2:B9)</f>
         <v/>
       </c>
@@ -668,85 +731,85 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="5">
-      <c r="A1" s="6" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="6">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>students</t>
         </is>
       </c>
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Grade</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="5">
-      <c r="A2" s="6" t="inlineStr">
+    <row r="2" ht="15" customHeight="1" s="6">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>senthil</t>
         </is>
       </c>
-      <c r="B2" s="6" t="n">
+      <c r="B2" s="5" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="5">
-      <c r="A3" s="6" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="6">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>priya</t>
         </is>
       </c>
-      <c r="B3" s="6" t="n">
+      <c r="B3" s="5" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="5">
-      <c r="A4" s="6" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="6">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>anu</t>
         </is>
       </c>
-      <c r="B4" s="6" t="n">
+      <c r="B4" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="5">
-      <c r="A5" s="6" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="6">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>hari</t>
         </is>
       </c>
-      <c r="B5" s="6" t="n">
+      <c r="B5" s="5" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="5">
-      <c r="A6" s="6" t="inlineStr">
+    <row r="6" ht="15" customHeight="1" s="6">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>ammu</t>
         </is>
       </c>
-      <c r="B6" s="6" t="n">
+      <c r="B6" s="5" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="5">
-      <c r="A7" s="6" t="inlineStr">
+    <row r="7" ht="15" customHeight="1" s="6">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>kiran</t>
         </is>
       </c>
-      <c r="B7" s="6" t="n">
+      <c r="B7" s="5" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="5">
-      <c r="A8" s="6" t="inlineStr">
+    <row r="8" ht="15" customHeight="1" s="6">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>suraj</t>
         </is>
       </c>
-      <c r="B8" s="6" t="n">
+      <c r="B8" s="5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -771,33 +834,33 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.171875" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1" s="5">
-      <c r="A1" s="8" t="inlineStr">
+    <row r="1" ht="12.75" customHeight="1" s="6">
+      <c r="A1" s="9" t="inlineStr">
         <is>
           <t>S.No</t>
         </is>
       </c>
-      <c r="B1" s="8" t="inlineStr">
+      <c r="B1" s="9" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="C1" s="8" t="inlineStr">
+      <c r="C1" s="9" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1" s="5">
-      <c r="A2" s="6" t="n">
+    <row r="2" ht="12.75" customHeight="1" s="6">
+      <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="inlineStr">
+      <c r="B2" s="10" t="inlineStr">
         <is>
           <t>20/12/24</t>
         </is>
       </c>
-      <c r="C2" s="8" t="inlineStr">
+      <c r="C2" s="9" t="inlineStr">
         <is>
           <t>senthil</t>
         </is>

--- a/students.xlsx
+++ b/students.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
@@ -47,18 +47,40 @@
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
+      <family val="0"/>
       <b val="1"/>
-      <sz val="5"/>
+      <sz val="15"/>
     </font>
     <font>
-      <name val="Arial"/>
+      <name val="Nimbus Mono PS"/>
+      <charset val="1"/>
+      <family val="0"/>
       <b val="1"/>
-      <sz val="25"/>
+      <i val="1"/>
+      <color rgb="FFCD5C5C"/>
+      <sz val="14"/>
     </font>
     <font>
-      <name val="Arial"/>
+      <name val="Courier New"/>
+      <charset val="1"/>
+      <family val="3"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Liberation Mono"/>
       <b val="1"/>
-      <sz val="15"/>
+      <i val="1"/>
+      <color rgb="00CD5C5C"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="Nimbus Mono PS"/>
+      <strike val="1"/>
+      <color rgb="00DB3B22"/>
+      <sz val="12"/>
+      <u val="single"/>
     </font>
   </fonts>
   <fills count="2">
@@ -88,7 +110,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -98,10 +120,19 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -120,7 +151,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -137,70 +171,62 @@
   </cellStyles>
   <colors>
     <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFCD5C5C"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -497,215 +523,215 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="9.26" customWidth="1" style="5" min="3" max="3"/>
-    <col width="14.77" customWidth="1" style="5" min="4" max="4"/>
-    <col width="16.2" customWidth="1" style="5" min="5" max="5"/>
+    <col width="9.26" customWidth="1" style="8" min="3" max="3"/>
+    <col width="14.77" customWidth="1" style="8" min="4" max="4"/>
+    <col width="16.2" customWidth="1" style="8" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="6">
-      <c r="A1" s="5" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="9">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="8" t="inlineStr">
         <is>
           <t>Interest %</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="8" t="inlineStr">
         <is>
           <t>intrest per year</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="8" t="inlineStr">
         <is>
           <t>Amount + interest</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="6">
-      <c r="A2" s="5" t="inlineStr">
+    <row r="2" ht="15" customHeight="1" s="9">
+      <c r="A2" s="8" t="inlineStr">
         <is>
           <t>senthil</t>
         </is>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="8" t="n">
         <v>480</v>
       </c>
-      <c r="C2" s="7" t="n">
+      <c r="C2" s="10" t="n">
         <v>0.04</v>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="D2" s="8" t="n">
         <v>19.2</v>
       </c>
-      <c r="E2" s="5" t="n">
+      <c r="E2" s="8" t="n">
         <v>499.2</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="6">
-      <c r="A3" s="5" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="9">
+      <c r="A3" s="8" t="inlineStr">
         <is>
           <t>priya</t>
         </is>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="8" t="n">
         <v>450</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="10" t="n">
         <v>0.035</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="8" t="n">
         <v>15.75</v>
       </c>
-      <c r="E3" s="5" t="n">
+      <c r="E3" s="8" t="n">
         <v>465.75</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="6">
-      <c r="A4" s="5" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="9">
+      <c r="A4" s="8" t="inlineStr">
         <is>
           <t>anu</t>
         </is>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="8" t="n">
         <v>490</v>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="10" t="n">
         <v>0.021</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="8" t="n">
         <v>10.29</v>
       </c>
-      <c r="E4" s="5" t="n">
+      <c r="E4" s="8" t="n">
         <v>500.29</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="6">
-      <c r="A5" s="5" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="9">
+      <c r="A5" s="8" t="inlineStr">
         <is>
           <t>hari</t>
         </is>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="8" t="n">
         <v>471</v>
       </c>
-      <c r="C5" s="7" t="n">
+      <c r="C5" s="10" t="n">
         <v>0.01</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="8" t="n">
         <v>4.71</v>
       </c>
-      <c r="E5" s="5" t="n">
+      <c r="E5" s="8" t="n">
         <v>475.71</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="6">
-      <c r="A6" s="5" t="inlineStr">
+    <row r="6" ht="15" customHeight="1" s="9">
+      <c r="A6" s="8" t="inlineStr">
         <is>
           <t>ammu</t>
         </is>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="8" t="n">
         <v>478</v>
       </c>
-      <c r="C6" s="7" t="n">
+      <c r="C6" s="10" t="n">
         <v>0.0478</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="8" t="n">
         <v>22.8484</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="8" t="n">
         <v>500.8484</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="6">
-      <c r="A7" s="5" t="inlineStr">
+    <row r="7" ht="15" customHeight="1" s="9">
+      <c r="A7" s="8" t="inlineStr">
         <is>
           <t>kiran</t>
         </is>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="8" t="n">
         <v>481</v>
       </c>
-      <c r="C7" s="7" t="n">
+      <c r="C7" s="10" t="n">
         <v>0.041</v>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="8" t="n">
         <v>19.721</v>
       </c>
-      <c r="E7" s="5" t="n">
+      <c r="E7" s="8" t="n">
         <v>500.721</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="6">
-      <c r="A8" s="5" t="inlineStr">
+    <row r="8" ht="15" customHeight="1" s="9">
+      <c r="A8" s="8" t="inlineStr">
         <is>
           <t>suraj</t>
         </is>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="8" t="n">
         <v>460</v>
       </c>
-      <c r="C8" s="7" t="n">
+      <c r="C8" s="10" t="n">
         <v>0.06</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="8" t="n">
         <v>27.6</v>
       </c>
-      <c r="E8" s="5" t="n">
+      <c r="E8" s="8" t="n">
         <v>487.6</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="6">
-      <c r="A9" s="5" t="inlineStr">
+    <row r="9" ht="15" customHeight="1" s="9">
+      <c r="A9" s="8" t="inlineStr">
         <is>
           <t>meera</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n">
+      <c r="B9" s="8" t="n">
         <v>453</v>
       </c>
-      <c r="C9" s="7" t="n">
+      <c r="C9" s="10" t="n">
         <v>0.043</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="D9" s="8" t="n">
         <v>19.479</v>
       </c>
-      <c r="E9" s="5" t="n">
+      <c r="E9" s="8" t="n">
         <v>472.479</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="6"/>
-    <row r="11" ht="15" customHeight="1" s="6">
-      <c r="A11" s="12" t="inlineStr">
+    <row r="10" ht="15" customHeight="1" s="9"/>
+    <row r="11" ht="15" customHeight="1" s="9">
+      <c r="A11" s="11" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="8">
         <f>SUM(B2:B9)</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="6">
-      <c r="A12" s="5" t="inlineStr">
+    <row r="12" ht="15" customHeight="1" s="9">
+      <c r="A12" s="8" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="8">
         <f>AVERAGE(B2:B9)</f>
         <v/>
       </c>
@@ -726,90 +752,90 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="6">
-      <c r="A1" s="5" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="9">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>students</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>Grade</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="6">
-      <c r="A2" s="5" t="inlineStr">
+    <row r="2" ht="15" customHeight="1" s="9">
+      <c r="A2" s="8" t="inlineStr">
         <is>
           <t>senthil</t>
         </is>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="8" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="6">
-      <c r="A3" s="5" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="9">
+      <c r="A3" s="8" t="inlineStr">
         <is>
           <t>priya</t>
         </is>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="8" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="6">
-      <c r="A4" s="5" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="9">
+      <c r="A4" s="8" t="inlineStr">
         <is>
           <t>anu</t>
         </is>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="6">
-      <c r="A5" s="5" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="9">
+      <c r="A5" s="8" t="inlineStr">
         <is>
           <t>hari</t>
         </is>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="8" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="6">
-      <c r="A6" s="5" t="inlineStr">
+    <row r="6" ht="15" customHeight="1" s="9">
+      <c r="A6" s="8" t="inlineStr">
         <is>
           <t>ammu</t>
         </is>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="8" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="6">
-      <c r="A7" s="5" t="inlineStr">
+    <row r="7" ht="15" customHeight="1" s="9">
+      <c r="A7" s="8" t="inlineStr">
         <is>
           <t>kiran</t>
         </is>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="8" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="6">
-      <c r="A8" s="5" t="inlineStr">
+    <row r="8" ht="15" customHeight="1" s="9">
+      <c r="A8" s="8" t="inlineStr">
         <is>
           <t>suraj</t>
         </is>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="8" t="n">
         <v>6</v>
       </c>
     </row>
@@ -834,33 +860,33 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.171875" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1" s="6">
-      <c r="A1" s="9" t="inlineStr">
+    <row r="1" ht="12.75" customHeight="1" s="9">
+      <c r="A1" s="12" t="inlineStr">
         <is>
           <t>S.No</t>
         </is>
       </c>
-      <c r="B1" s="9" t="inlineStr">
+      <c r="B1" s="12" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="C1" s="9" t="inlineStr">
+      <c r="C1" s="12" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1" s="6">
-      <c r="A2" s="5" t="n">
+    <row r="2" ht="12.75" customHeight="1" s="9">
+      <c r="A2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="inlineStr">
+      <c r="B2" s="13" t="inlineStr">
         <is>
           <t>20/12/24</t>
         </is>
       </c>
-      <c r="C2" s="9" t="inlineStr">
+      <c r="C2" s="12" t="inlineStr">
         <is>
           <t>senthil</t>
         </is>
@@ -887,14 +913,95 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" ht="13.5" customHeight="1" s="9">
+      <c r="A1" s="14" t="inlineStr">
+        <is>
+          <t>senthil</t>
+        </is>
+      </c>
+      <c r="B1" s="15" t="inlineStr">
+        <is>
+          <t>priya</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="13.5" customHeight="1" s="9">
+      <c r="A2" s="8" t="inlineStr">
+        <is>
+          <t>priya</t>
+        </is>
+      </c>
+      <c r="B2" s="15" t="inlineStr">
+        <is>
+          <t>anu</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="9">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>anu</t>
+        </is>
+      </c>
+      <c r="B3" s="15" t="inlineStr">
+        <is>
+          <t>hari</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="13.5" customHeight="1" s="9">
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t>hari</t>
+        </is>
+      </c>
+      <c r="B4" s="15" t="inlineStr">
+        <is>
+          <t>ammu</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="13.5" customHeight="1" s="9">
+      <c r="A5" s="8" t="inlineStr">
+        <is>
+          <t>ammu</t>
+        </is>
+      </c>
+      <c r="B5" s="15" t="inlineStr">
+        <is>
+          <t>kiran</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="13.5" customHeight="1" s="9">
+      <c r="A6" s="8" t="inlineStr">
+        <is>
+          <t>kiran</t>
+        </is>
+      </c>
+      <c r="B6" s="15" t="inlineStr">
+        <is>
+          <t>suraj</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="13.5" customHeight="1" s="9">
+      <c r="A7" s="8" t="inlineStr">
+        <is>
+          <t>suraj</t>
+        </is>
+      </c>
+      <c r="B7" s="16" t="n"/>
+    </row>
+  </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/students.xlsx
+++ b/students.xlsx
@@ -83,12 +83,22 @@
       <u val="single"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="00FF7F50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF7F50"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -110,7 +120,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -158,6 +168,12 @@
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -934,7 +950,7 @@
       </c>
     </row>
     <row r="2" ht="13.5" customHeight="1" s="9">
-      <c r="A2" s="8" t="inlineStr">
+      <c r="A2" s="18" t="inlineStr">
         <is>
           <t>priya</t>
         </is>

--- a/students.xlsx
+++ b/students.xlsx
@@ -101,7 +101,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -109,6 +109,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="dashDot">
+        <color rgb="000000FF"/>
+      </left>
+      <right style="double">
+        <color rgb="00800000"/>
+      </right>
+      <top style="dashed">
+        <color rgb="00CD5C5C"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="00DE3163"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -120,7 +134,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -176,6 +190,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -868,7 +883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
@@ -907,6 +922,9 @@
           <t>senthil</t>
         </is>
       </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="19" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
